--- a/BiathlonToyTarget/TargetHitDetector/TargetHitDetector.xlsx
+++ b/BiathlonToyTarget/TargetHitDetector/TargetHitDetector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dagak\GitHub\BiathlonToyTarget\Hardware\TargetHitDetector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dagak\GitHub\hardware\BiathlonToyTarget\TargetHitDetector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8005A6-E9D8-49D2-AB56-F2574D278EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2381B1EF-E9D7-4657-A992-29B0F09A9EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="630" windowWidth="41115" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42210" yWindow="465" windowWidth="21600" windowHeight="11265" xr2:uid="{58C7E637-735F-41D3-86DF-34CD7677CF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TargetHitDetector" sheetId="1" r:id="rId1"/>
@@ -20,205 +20,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
-  <si>
-    <t>Individual Components:</t>
-  </si>
-  <si>
-    <t>Collated Components:</t>
-  </si>
-  <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Thu Feb 29 13:56:39 2024</t>
-  </si>
-  <si>
-    <t>Tool:</t>
-  </si>
-  <si>
-    <t>Eeschema (6.0.4)</t>
-  </si>
-  <si>
-    <t>Generator:</t>
-  </si>
-  <si>
-    <t>C:\Program Files\KiCad\6.0\bin\scripting\plugins/bom_csv_grouped_by_value.py</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Reference(s)</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>LibPart</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Designator</t>
   </si>
   <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>Datasheet</t>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>U1,U2</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>LM321</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Wago_734-133_1x03_P3.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Screw_Terminal_01x03</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R_1206_3216Metric_Pad1.30x1.75mm_HandSolder</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>D2,D1</t>
+  </si>
+  <si>
+    <t>D_SOD-523</t>
+  </si>
+  <si>
+    <t>D_Schottky</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric_Pad1.33x1.80mm_HandSolder</t>
+  </si>
+  <si>
+    <t>R5</t>
   </si>
   <si>
     <t>BZ1</t>
   </si>
   <si>
+    <t>Buzzer_Murata_PKMCS0909E</t>
+  </si>
+  <si>
     <t>Buzzer</t>
   </si>
   <si>
-    <t>Device:Buzzer</t>
-  </si>
-  <si>
-    <t>Buzzer_Beeper:Buzzer_Murata_PKMCS0909E</t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>10u</t>
-  </si>
-  <si>
-    <t>Device:C</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric_Pad1.33x1.80mm_HandSolder</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>0.47u</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D_Schottky</t>
-  </si>
-  <si>
-    <t>Device:D_Schottky</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_SOD-523</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Device:D</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_1206_3216Metric_Pad1.42x1.75mm_HandSolder</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Screw_Terminal_01x03</t>
-  </si>
-  <si>
-    <t>Connector:Screw_Terminal_01x03</t>
-  </si>
-  <si>
-    <t>Connector_Wago:Wago_734-133_1x03_P3.50mm_Vertical</t>
-  </si>
-  <si>
-    <t>R1</t>
+    <t>0.47µF</t>
+  </si>
+  <si>
+    <t>R2,R1</t>
   </si>
   <si>
     <t>1k</t>
   </si>
   <si>
-    <t>Device:R</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_1206_3216Metric_Pad1.30x1.75mm_HandSolder</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>RV1</t>
   </si>
   <si>
-    <t>R_Potentiometer</t>
-  </si>
-  <si>
-    <t>Device:R_Potentiometer</t>
-  </si>
-  <si>
-    <t>Potentiometer_THT:Potentiometer_ACP_CA9-H5_Horizontal</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>LM321</t>
-  </si>
-  <si>
-    <t>Amplifier_Operational:LM321</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-23-5</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/lm321.pdf</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>U1, U2</t>
-  </si>
-  <si>
-    <t>TargetHitDetector.kicad_sch</t>
-  </si>
-  <si>
-    <t>LM321SN3T1G</t>
+    <t>Potentiometer_ACP_CA9-H5_Horizontal</t>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>PTN06-D10CC20</t>
+  </si>
+  <si>
+    <t>price [NOK]</t>
+  </si>
+  <si>
+    <t>PKMCS0909E4000-R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDBH0230-G </t>
+  </si>
+  <si>
+    <t>TS321CX5 RFG</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>CRCW1206100RFKEAC</t>
+  </si>
+  <si>
+    <t>CRCW120622K0FKEAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRCW12061K00FKEAC </t>
+  </si>
+  <si>
+    <t>10µF 16V</t>
+  </si>
+  <si>
+    <t>BAS516,135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL31B106KOHNNWE </t>
+  </si>
+  <si>
+    <t>885012208034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09TR11KA103DPR </t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>1984950</t>
+  </si>
+  <si>
+    <t>Alt.(ver.3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,8 +331,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +526,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -650,8 +654,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -694,11 +722,29 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % – uthevingsfarge 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % – uthevingsfarge 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % – uthevingsfarge 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -721,6 +767,7 @@
     <cellStyle name="Dårlig" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Forklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="God" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperkobling" xfId="42" builtinId="8"/>
     <cellStyle name="Inndata" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Koblet celle" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Kontrollcelle" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -1071,617 +1118,419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58B1CB2-F027-4F41-884F-1789DB6EE85F}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" customWidth="1"/>
+    <col min="3" max="3" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>62</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3">
+        <v>15.59</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.97</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.72</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3">
+        <v>9.67</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="H12" s="3">
+        <v>5.27</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>9</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>10</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" t="s">
-        <v>63</v>
+      <c r="N12" s="3">
+        <v>9.77</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G12" r:id="rId1" xr:uid="{B7E4DB97-DC08-40C7-8756-58754293026E}"/>
+    <hyperlink ref="G9" r:id="rId2" xr:uid="{EACFD3E4-6A0D-4D4F-BCF9-8741C4533710}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{AEF424DE-2A63-493C-8E6A-B52534D87561}"/>
+    <hyperlink ref="G2" r:id="rId4" xr:uid="{6E273CCA-970C-479E-B3AE-43C8EE6ACB21}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{1A9BCEB4-D764-49AB-B710-72E06B90BF5C}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{FE7DF965-F30F-44ED-BD66-60DFCA9467CD}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{D2885877-0E31-4915-8ACE-1C726956D19B}"/>
+    <hyperlink ref="G6" r:id="rId8" xr:uid="{04982E15-7F25-4793-840F-74F7CCA50CF8}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{7CE4C54C-54EE-4511-B682-2B756178A31B}"/>
+    <hyperlink ref="G10" r:id="rId10" xr:uid="{BDCB9954-89B8-43A4-9204-01841EA9BBE9}"/>
+    <hyperlink ref="G3" r:id="rId11" xr:uid="{71B56DAA-D827-4CA2-9833-C00427D3BC01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId12"/>
 </worksheet>
 </file>